--- a/templates/AutomationOrg/Disassembly Work Order complete flow without Reversals.xlsx
+++ b/templates/AutomationOrg/Disassembly Work Order complete flow without Reversals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86D710D-2F57-4150-9E74-4EE6DBEA7C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954BFE0F-40A2-492C-99CA-C955799DDFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{410C97DE-4098-431C-AD23-B1A3C3378843}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Disassembly WO" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Pro-123</t>
   </si>
   <si>
-    <t>Pro-Disassembley Lot (Lot track)</t>
-  </si>
-  <si>
     <t>Pro-child18 (NO Track)</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>Pro-child20 (Lot and serial track)</t>
+  </si>
+  <si>
+    <t>Pro-Disassembley (Lot and serial track)</t>
   </si>
 </sst>
 </file>
@@ -502,7 +502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F9D0080-B4D2-4351-9E4B-3E7D4A08CBFC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -538,7 +538,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -564,7 +564,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -615,7 +615,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A55D77-3A07-4BB8-BFD8-EAD99132AF4E}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -719,10 +719,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -733,10 +733,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
         <v>31</v>
-      </c>
-      <c r="B3" t="s">
-        <v>32</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -756,10 +756,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
